--- a/framework/payback/还款利息计算器模型.xlsx
+++ b/framework/payback/还款利息计算器模型.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="104">
   <si>
     <t>总欠款</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,13 +229,172 @@
   <si>
     <t>选择利率</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利率选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考利率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设定倍数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终利率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借入表格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还款表格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会总行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+  </si>
+  <si>
+    <t>年利率（%)</t>
+  </si>
+  <si>
+    <t>一、城乡居民及单位存款</t>
+  </si>
+  <si>
+    <t>（一）活期存款</t>
+  </si>
+  <si>
+    <t>（二）定期存款</t>
+  </si>
+  <si>
+    <t>1.整存整取</t>
+  </si>
+  <si>
+    <t>2.零存整取、整存零取、存本取息</t>
+  </si>
+  <si>
+    <t>3.定活两便</t>
+  </si>
+  <si>
+    <t>按一年以内定期整存整取同档次利率打6折</t>
+  </si>
+  <si>
+    <t>二、协定存款</t>
+  </si>
+  <si>
+    <t>三、通知存款</t>
+  </si>
+  <si>
+    <t>一天</t>
+  </si>
+  <si>
+    <t>七天</t>
+  </si>
+  <si>
+    <t>整存整取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活期存款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活期存款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一年以内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一至五年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款-一年以内-4.35|</t>
+  </si>
+  <si>
+    <t>贷款-一至五年-4.75|</t>
+  </si>
+  <si>
+    <t>贷款-五年以上-4.9|</t>
+  </si>
+  <si>
+    <t>整存整取-三个月-1.35|</t>
+  </si>
+  <si>
+    <t>整存整取-六个月-1.55|</t>
+  </si>
+  <si>
+    <t>整存整取-一年-1.75|</t>
+  </si>
+  <si>
+    <t>整存整取-二年-2.25|</t>
+  </si>
+  <si>
+    <t>整存整取-三年-2.75|</t>
+  </si>
+  <si>
+    <t>整存整取-五年-2.75|</t>
+  </si>
+  <si>
+    <t>活期存款-活期存款-0.3|</t>
+  </si>
+  <si>
+    <t>{text:"贷款-一年以内-4.35",value:4.35},</t>
+  </si>
+  <si>
+    <t>{text:"贷款-一至五年-4.75",value:4.75},</t>
+  </si>
+  <si>
+    <t>{text:"贷款-五年以上-4.9",value:4.9},</t>
+  </si>
+  <si>
+    <t>{text:"整存整取-三个月-1.35",value:1.35},</t>
+  </si>
+  <si>
+    <t>{text:"整存整取-六个月-1.55",value:1.55},</t>
+  </si>
+  <si>
+    <t>{text:"整存整取-一年-1.75",value:1.75},</t>
+  </si>
+  <si>
+    <t>{text:"整存整取-二年-2.25",value:2.25},</t>
+  </si>
+  <si>
+    <t>{text:"整存整取-三年-2.75",value:2.75},</t>
+  </si>
+  <si>
+    <t>{text:"整存整取-五年-2.75",value:2.75},</t>
+  </si>
+  <si>
+    <t>{text:"活期存款-活期存款-0.3",value:0.3},</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,8 +409,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF535353"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF535353"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,8 +442,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -278,17 +457,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -606,7 +806,7 @@
   <dimension ref="B3:L38"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33:L33"/>
+      <selection activeCell="G14" sqref="G14:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -910,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1079,23 +1279,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>55</v>
       </c>
       <c r="B17">
         <v>4.3499999999999996</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>50</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -1103,16 +1309,22 @@
         <f>B18*B17</f>
         <v>4.3499999999999996</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="5">
         <v>42692</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -1120,12 +1332,20 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
@@ -1144,38 +1364,44 @@
       <c r="F25" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>7</v>
       </c>
@@ -1190,4 +1416,435 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D11:O35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25:I34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="31.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="11" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="I12" t="str">
+        <f>J12&amp;"-"&amp;K12&amp;"-"&amp;L12&amp;"|"</f>
+        <v>贷款-一年以内-4.35|</v>
+      </c>
+      <c r="J12" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" s="6">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="M12" t="s">
+        <v>84</v>
+      </c>
+      <c r="N12" s="6">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="O12" s="6">
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="I13" t="str">
+        <f t="shared" ref="I13:I21" si="0">J13&amp;"-"&amp;K13&amp;"-"&amp;L13&amp;"|"</f>
+        <v>贷款-一至五年-4.75|</v>
+      </c>
+      <c r="J13" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L13" s="6">
+        <v>4.75</v>
+      </c>
+      <c r="M13" t="s">
+        <v>85</v>
+      </c>
+      <c r="N13" s="6">
+        <v>4.75</v>
+      </c>
+      <c r="O13" s="6">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="14" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>贷款-五年以上-4.9|</v>
+      </c>
+      <c r="J14" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M14" t="s">
+        <v>86</v>
+      </c>
+      <c r="N14" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="O14" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>整存整取-三个月-1.35|</v>
+      </c>
+      <c r="J15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15">
+        <v>1.35</v>
+      </c>
+      <c r="M15" t="s">
+        <v>87</v>
+      </c>
+      <c r="N15">
+        <v>1.35</v>
+      </c>
+      <c r="O15">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="16" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>整存整取-六个月-1.55|</v>
+      </c>
+      <c r="J16" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16">
+        <v>1.55</v>
+      </c>
+      <c r="M16" t="s">
+        <v>88</v>
+      </c>
+      <c r="N16">
+        <v>1.55</v>
+      </c>
+      <c r="O16">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="17" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>整存整取-一年-1.75|</v>
+      </c>
+      <c r="J17" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17">
+        <v>1.75</v>
+      </c>
+      <c r="M17" t="s">
+        <v>89</v>
+      </c>
+      <c r="N17">
+        <v>1.75</v>
+      </c>
+      <c r="O17">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="18" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18">
+        <v>0.3</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>整存整取-二年-2.25|</v>
+      </c>
+      <c r="J18" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18">
+        <v>2.25</v>
+      </c>
+      <c r="M18" t="s">
+        <v>90</v>
+      </c>
+      <c r="N18">
+        <v>2.25</v>
+      </c>
+      <c r="O18">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="19" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v>整存整取-三年-2.75|</v>
+      </c>
+      <c r="J19" t="s">
+        <v>78</v>
+      </c>
+      <c r="K19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19">
+        <v>2.75</v>
+      </c>
+      <c r="M19" t="s">
+        <v>91</v>
+      </c>
+      <c r="N19">
+        <v>2.75</v>
+      </c>
+      <c r="O19">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="20" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v>整存整取-五年-2.75|</v>
+      </c>
+      <c r="J20" t="s">
+        <v>78</v>
+      </c>
+      <c r="K20" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20">
+        <v>2.75</v>
+      </c>
+      <c r="M20" t="s">
+        <v>92</v>
+      </c>
+      <c r="N20">
+        <v>2.75</v>
+      </c>
+      <c r="O20">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="21" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>1.35</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v>活期存款-活期存款-0.3|</v>
+      </c>
+      <c r="J21" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21" t="s">
+        <v>80</v>
+      </c>
+      <c r="L21">
+        <v>0.3</v>
+      </c>
+      <c r="M21" t="s">
+        <v>93</v>
+      </c>
+      <c r="N21">
+        <v>0.3</v>
+      </c>
+      <c r="O21">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="23" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="24" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="25" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>2.75</v>
+      </c>
+      <c r="I25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26">
+        <v>2.75</v>
+      </c>
+      <c r="I26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>71</v>
+      </c>
+      <c r="I27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>1.35</v>
+      </c>
+      <c r="I28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>1.55</v>
+      </c>
+      <c r="I29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30">
+        <v>1.55</v>
+      </c>
+      <c r="I30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" t="s">
+        <v>73</v>
+      </c>
+      <c r="I31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>75</v>
+      </c>
+      <c r="I33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>